--- a/output/1Y_P41_KFSDIV.xlsx
+++ b/output/1Y_P41_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.1934</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.1176</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="F3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="H3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0053</v>
+        <v>-0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>15.3311</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.8885</v>
+        <v>1410.0645</v>
       </c>
       <c r="F4" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="H4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1554</v>
+        <v>14.1837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>15.3637</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E5" s="1">
-        <v>2065.1574</v>
+        <v>2061.0299</v>
       </c>
       <c r="F5" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="H5" s="1">
-        <v>31728.4592</v>
+        <v>31601.771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31728.4592</v>
+        <v>31601.771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5267</v>
+        <v>14.5558</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0021</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>14.6447</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E6" s="1">
-        <v>2716.0423</v>
+        <v>2710.6125</v>
       </c>
       <c r="F6" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="H6" s="1">
-        <v>39775.6248</v>
+        <v>39616.6861</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39775.6248</v>
+        <v>39616.6861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7273</v>
+        <v>14.7568</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1858.6417</v>
+        <v>1854.9269</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8141.3583</v>
+        <v>-8145.0731</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0468</v>
+        <v>-0.0477</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>15.486</v>
       </c>
       <c r="C7" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D7" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E7" s="1">
-        <v>3398.8832</v>
+        <v>3392.09</v>
       </c>
       <c r="F7" s="1">
-        <v>662.8904</v>
+        <v>661.5318</v>
       </c>
       <c r="H7" s="1">
-        <v>52635.1053</v>
+        <v>52424.7503</v>
       </c>
       <c r="I7" s="1">
-        <v>1858.6417</v>
+        <v>1854.9269</v>
       </c>
       <c r="J7" s="1">
-        <v>54493.7469</v>
+        <v>54279.6771</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.7107</v>
+        <v>14.7402</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10265.5202</v>
+        <v>-10264.9896</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0948</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>16.1958</v>
       </c>
       <c r="C8" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E8" s="1">
-        <v>4061.7736</v>
+        <v>4053.6218</v>
       </c>
       <c r="F8" s="1">
-        <v>633.8384</v>
+        <v>632.5402</v>
       </c>
       <c r="H8" s="1">
-        <v>65783.2662</v>
+        <v>65520.3105</v>
       </c>
       <c r="I8" s="1">
-        <v>1593.1214</v>
+        <v>1589.9373</v>
       </c>
       <c r="J8" s="1">
-        <v>67376.3876</v>
+        <v>67110.2478</v>
       </c>
       <c r="K8" s="1">
-        <v>60265.5202</v>
+        <v>60264.9896</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8372</v>
+        <v>14.8669</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10265.5202</v>
+        <v>-10264.9896</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0447</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>16.4264</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E9" s="1">
-        <v>4695.612</v>
+        <v>4686.162</v>
       </c>
       <c r="F9" s="1">
-        <v>624.9404</v>
+        <v>623.6589</v>
       </c>
       <c r="H9" s="1">
-        <v>77132.0007</v>
+        <v>76823.06600000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1327.6012</v>
+        <v>1324.9478</v>
       </c>
       <c r="J9" s="1">
-        <v>78459.602</v>
+        <v>78148.0137</v>
       </c>
       <c r="K9" s="1">
-        <v>70531.0405</v>
+        <v>70529.9791</v>
       </c>
       <c r="L9" s="1">
-        <v>15.0206</v>
+        <v>15.0507</v>
       </c>
       <c r="M9" s="1">
         <v>0.75</v>
       </c>
       <c r="N9" s="1">
-        <v>2741.6972</v>
+        <v>2736.1947</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7523.8231</v>
+        <v>-7528.7948</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>17.107</v>
       </c>
       <c r="C10" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D10" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E10" s="1">
-        <v>5320.5523</v>
+        <v>5309.821</v>
       </c>
       <c r="F10" s="1">
-        <v>640.1441</v>
+        <v>638.7519</v>
       </c>
       <c r="H10" s="1">
-        <v>91018.68889999999</v>
+        <v>90653.51149999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3803.7781</v>
+        <v>3796.1529</v>
       </c>
       <c r="J10" s="1">
-        <v>94822.467</v>
+        <v>94449.6645</v>
       </c>
       <c r="K10" s="1">
-        <v>80796.5607</v>
+        <v>80794.9687</v>
       </c>
       <c r="L10" s="1">
-        <v>15.1857</v>
+        <v>15.2161</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10950.9445</v>
+        <v>-10949.0382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07190000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>16.8894</v>
       </c>
       <c r="C11" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D11" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E11" s="1">
-        <v>5960.6964</v>
+        <v>5948.5729</v>
       </c>
       <c r="F11" s="1">
-        <v>648.3916</v>
+        <v>646.9838999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100671.9898</v>
+        <v>100266.7652</v>
       </c>
       <c r="I11" s="1">
-        <v>2852.8336</v>
+        <v>2847.1147</v>
       </c>
       <c r="J11" s="1">
-        <v>103524.8234</v>
+        <v>103113.8799</v>
       </c>
       <c r="K11" s="1">
-        <v>91747.5053</v>
+        <v>91744.00689999999</v>
       </c>
       <c r="L11" s="1">
-        <v>15.3921</v>
+        <v>15.4229</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4788.4971</v>
+        <v>4778.8389</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6162.4474</v>
+        <v>-6170.1994</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0124</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>16.4004</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E12" s="1">
-        <v>6609.088</v>
+        <v>6595.5568</v>
       </c>
       <c r="F12" s="1">
-        <v>813.7114</v>
+        <v>811.6725</v>
       </c>
       <c r="H12" s="1">
-        <v>108391.6864</v>
+        <v>107953.4356</v>
       </c>
       <c r="I12" s="1">
-        <v>6690.3862</v>
+        <v>6676.9153</v>
       </c>
       <c r="J12" s="1">
-        <v>115082.0726</v>
+        <v>114630.351</v>
       </c>
       <c r="K12" s="1">
-        <v>102698.4498</v>
+        <v>102693.0451</v>
       </c>
       <c r="L12" s="1">
-        <v>15.539</v>
+        <v>15.57</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13345.1931</v>
+        <v>-13338.4577</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0137</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>15.3877</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E13" s="1">
-        <v>7422.7994</v>
+        <v>7407.2293</v>
       </c>
       <c r="F13" s="1">
-        <v>867.2637</v>
+        <v>865.0944</v>
       </c>
       <c r="H13" s="1">
-        <v>114219.8105</v>
+        <v>113752.0797</v>
       </c>
       <c r="I13" s="1">
-        <v>3345.1931</v>
+        <v>3338.4577</v>
       </c>
       <c r="J13" s="1">
-        <v>117565.0036</v>
+        <v>117090.5374</v>
       </c>
       <c r="K13" s="1">
-        <v>116043.6429</v>
+        <v>116031.5028</v>
       </c>
       <c r="L13" s="1">
-        <v>15.6334</v>
+        <v>15.6646</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13345.1931</v>
+        <v>-13338.4577</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0601</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.6367</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E14" s="1">
-        <v>8290.063099999999</v>
+        <v>8272.323700000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8290.063099999999</v>
+        <v>-8272.323700000001</v>
       </c>
       <c r="H14" s="1">
-        <v>121339.1662</v>
+        <v>120837.141</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121339.1662</v>
+        <v>120837.141</v>
       </c>
       <c r="K14" s="1">
-        <v>129388.836</v>
+        <v>129369.9605</v>
       </c>
       <c r="L14" s="1">
-        <v>15.6077</v>
+        <v>15.6389</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121339.1662</v>
+        <v>120837.141</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0488</v>
+        <v>-0.0492</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.1934</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.1176</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="F3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0053</v>
+        <v>-0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>15.3311</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.8885</v>
+        <v>1410.0645</v>
       </c>
       <c r="F4" s="1">
-        <v>543.9182</v>
+        <v>550.6686</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1554</v>
+        <v>14.1837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8338.8649</v>
+        <v>-8459.260399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>15.3637</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E5" s="1">
-        <v>1956.8068</v>
+        <v>1960.7331</v>
       </c>
       <c r="F5" s="1">
-        <v>646.7328</v>
+        <v>648.0193</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30063.7919</v>
+        <v>30063.9199</v>
       </c>
       <c r="I5" s="1">
-        <v>1661.1351</v>
+        <v>1540.7396</v>
       </c>
       <c r="J5" s="1">
-        <v>31724.927</v>
+        <v>31604.6595</v>
       </c>
       <c r="K5" s="1">
-        <v>28338.8649</v>
+        <v>28459.2604</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4822</v>
+        <v>14.5146</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9936.2081</v>
+        <v>-9975.933300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>14.6447</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E6" s="1">
-        <v>2603.5395</v>
+        <v>2608.7524</v>
       </c>
       <c r="F6" s="1">
-        <v>800.626</v>
+        <v>788.1155</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38128.0551</v>
+        <v>38127.9593</v>
       </c>
       <c r="I6" s="1">
-        <v>1724.927</v>
+        <v>1564.8063</v>
       </c>
       <c r="J6" s="1">
-        <v>39852.9821</v>
+        <v>39692.7656</v>
       </c>
       <c r="K6" s="1">
-        <v>38275.073</v>
+        <v>38435.1937</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7012</v>
+        <v>14.7332</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1761.1261</v>
+        <v>1764.6597</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9963.8009</v>
+        <v>-9800.1466</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0449</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>15.486</v>
       </c>
       <c r="C7" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D7" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E7" s="1">
-        <v>3404.1655</v>
+        <v>3396.8678</v>
       </c>
       <c r="F7" s="1">
-        <v>470.3018</v>
+        <v>485.3709</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52716.9065</v>
+        <v>52498.5923</v>
       </c>
       <c r="I7" s="1">
-        <v>1761.1261</v>
+        <v>1764.6597</v>
       </c>
       <c r="J7" s="1">
-        <v>54478.0326</v>
+        <v>54263.2521</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.6879</v>
+        <v>14.7194</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7283.0935</v>
+        <v>-7531.5007</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>16.1958</v>
       </c>
       <c r="C8" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E8" s="1">
-        <v>3874.4673</v>
+        <v>3882.2388</v>
       </c>
       <c r="F8" s="1">
-        <v>447.6676</v>
+        <v>448.5332</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62749.7094</v>
+        <v>62750.1779</v>
       </c>
       <c r="I8" s="1">
-        <v>4478.0326</v>
+        <v>4233.1591</v>
       </c>
       <c r="J8" s="1">
-        <v>67227.742</v>
+        <v>66983.337</v>
       </c>
       <c r="K8" s="1">
-        <v>57283.0935</v>
+        <v>57531.5007</v>
       </c>
       <c r="L8" s="1">
-        <v>14.7848</v>
+        <v>14.8192</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7250.3354</v>
+        <v>-7278.887</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0426</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>16.4264</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E9" s="1">
-        <v>4322.1349</v>
+        <v>4330.772</v>
       </c>
       <c r="F9" s="1">
-        <v>548.074</v>
+        <v>549.1812</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70997.1165</v>
+        <v>70996.9437</v>
       </c>
       <c r="I9" s="1">
-        <v>7227.6972</v>
+        <v>6954.272</v>
       </c>
       <c r="J9" s="1">
-        <v>78224.8138</v>
+        <v>77951.2157</v>
       </c>
       <c r="K9" s="1">
-        <v>64533.4288</v>
+        <v>64810.3877</v>
       </c>
       <c r="L9" s="1">
-        <v>14.9309</v>
+        <v>14.9651</v>
       </c>
       <c r="M9" s="1">
         <v>0.75</v>
       </c>
       <c r="N9" s="1">
-        <v>2615.2654</v>
+        <v>2620.5112</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6387.6181</v>
+        <v>-6418.6263</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0129</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>17.107</v>
       </c>
       <c r="C10" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D10" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E10" s="1">
-        <v>4870.2089</v>
+        <v>4879.9532</v>
       </c>
       <c r="F10" s="1">
-        <v>390.7953</v>
+        <v>391.5899</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83314.6642</v>
+        <v>83314.4642</v>
       </c>
       <c r="I10" s="1">
-        <v>10840.0792</v>
+        <v>10535.6457</v>
       </c>
       <c r="J10" s="1">
-        <v>94154.74340000001</v>
+        <v>93850.1099</v>
       </c>
       <c r="K10" s="1">
-        <v>73536.31230000001</v>
+        <v>73849.5252</v>
       </c>
       <c r="L10" s="1">
-        <v>15.0992</v>
+        <v>15.1332</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6685.3358</v>
+        <v>-6712.3597</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0672</v>
+        <v>0.06710000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>16.8894</v>
       </c>
       <c r="C11" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D11" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E11" s="1">
-        <v>5261.0043</v>
+        <v>5271.543</v>
       </c>
       <c r="F11" s="1">
-        <v>659.9041999999999</v>
+        <v>661.2033</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88854.67939999999</v>
+        <v>88855.0209</v>
       </c>
       <c r="I11" s="1">
-        <v>14154.7434</v>
+        <v>13823.286</v>
       </c>
       <c r="J11" s="1">
-        <v>103009.4227</v>
+        <v>102678.3068</v>
       </c>
       <c r="K11" s="1">
-        <v>80221.64810000001</v>
+        <v>80561.8849</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2484</v>
+        <v>15.2824</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4383.188</v>
+        <v>4391.9578</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6762.1986</v>
+        <v>-6797.7187</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.011</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>16.4004</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E12" s="1">
-        <v>5920.9085</v>
+        <v>5932.7464</v>
       </c>
       <c r="F12" s="1">
-        <v>786.245</v>
+        <v>787.848</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97105.2678</v>
+        <v>97104.8198</v>
       </c>
       <c r="I12" s="1">
-        <v>17392.5448</v>
+        <v>17025.5673</v>
       </c>
       <c r="J12" s="1">
-        <v>114497.8126</v>
+        <v>114130.3871</v>
       </c>
       <c r="K12" s="1">
-        <v>91367.0347</v>
+        <v>91751.56140000001</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4313</v>
+        <v>15.4653</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12894.7322</v>
+        <v>-12946.9418</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0132</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>15.3877</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E13" s="1">
-        <v>6707.1535</v>
+        <v>6720.5943</v>
       </c>
       <c r="F13" s="1">
-        <v>1091.2829</v>
+        <v>1093.4827</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>103207.6657</v>
+        <v>103207.4953</v>
       </c>
       <c r="I13" s="1">
-        <v>14497.8126</v>
+        <v>14078.6255</v>
       </c>
       <c r="J13" s="1">
-        <v>117705.4783</v>
+        <v>117286.1208</v>
       </c>
       <c r="K13" s="1">
-        <v>104261.7669</v>
+        <v>104698.5033</v>
       </c>
       <c r="L13" s="1">
-        <v>15.5449</v>
+        <v>15.5788</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-16792.3343</v>
+        <v>-16859.8632</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0546</v>
+        <v>-0.0551</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.6367</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E14" s="1">
-        <v>7798.4364</v>
+        <v>7814.0771</v>
       </c>
       <c r="F14" s="1">
-        <v>-7798.4364</v>
+        <v>-7814.0771</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114143.3743</v>
+        <v>114143.3492</v>
       </c>
       <c r="I14" s="1">
-        <v>7705.4783</v>
+        <v>7218.7622</v>
       </c>
       <c r="J14" s="1">
-        <v>121848.8525</v>
+        <v>121362.1115</v>
       </c>
       <c r="K14" s="1">
-        <v>121054.1012</v>
+        <v>121558.3665</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5229</v>
+        <v>15.5563</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114143.3743</v>
+        <v>114143.3492</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0459</v>
+        <v>-0.0465</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.1934</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.1176</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="F3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0053</v>
+        <v>-0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>15.3311</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.8885</v>
+        <v>1410.0645</v>
       </c>
       <c r="F4" s="1">
-        <v>553.7186</v>
+        <v>560.4886</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1554</v>
+        <v>14.1837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8489.1149</v>
+        <v>-8610.113300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>15.3637</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E5" s="1">
-        <v>1966.6071</v>
+        <v>1970.5531</v>
       </c>
       <c r="F5" s="1">
-        <v>656.5241</v>
+        <v>657.8302</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30214.3614</v>
+        <v>30214.49</v>
       </c>
       <c r="I5" s="1">
-        <v>1510.8851</v>
+        <v>1389.8867</v>
       </c>
       <c r="J5" s="1">
-        <v>31725.2465</v>
+        <v>31604.3767</v>
       </c>
       <c r="K5" s="1">
-        <v>28489.1149</v>
+        <v>28610.1133</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4864</v>
+        <v>14.5188</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10086.6399</v>
+        <v>-10126.9678</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.002</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>14.6447</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E6" s="1">
-        <v>2623.1312</v>
+        <v>2628.3833</v>
       </c>
       <c r="F6" s="1">
-        <v>780.0942</v>
+        <v>767.5425</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38414.9699</v>
+        <v>38414.8734</v>
       </c>
       <c r="I6" s="1">
-        <v>1424.2453</v>
+        <v>1262.9189</v>
       </c>
       <c r="J6" s="1">
-        <v>39839.2151</v>
+        <v>39677.7923</v>
       </c>
       <c r="K6" s="1">
-        <v>38575.7547</v>
+        <v>38737.0811</v>
       </c>
       <c r="L6" s="1">
-        <v>14.706</v>
+        <v>14.738</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1769.9464</v>
+        <v>1773.4978</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9654.2989</v>
+        <v>-9489.4211</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0452</v>
+        <v>-0.0463</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>15.486</v>
       </c>
       <c r="C7" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D7" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E7" s="1">
-        <v>3403.2254</v>
+        <v>3395.9258</v>
       </c>
       <c r="F7" s="1">
-        <v>519.9968</v>
+        <v>535.1657</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52702.3487</v>
+        <v>52484.0336</v>
       </c>
       <c r="I7" s="1">
-        <v>1769.9464</v>
+        <v>1773.4978</v>
       </c>
       <c r="J7" s="1">
-        <v>54472.2951</v>
+        <v>54257.5314</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.6919</v>
+        <v>14.7235</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8052.6701</v>
+        <v>-8304.1654</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.093</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>16.1958</v>
       </c>
       <c r="C8" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E8" s="1">
-        <v>3923.2222</v>
+        <v>3931.0915</v>
       </c>
       <c r="F8" s="1">
-        <v>464.2877</v>
+        <v>465.1862</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63539.3296</v>
+        <v>63539.804</v>
       </c>
       <c r="I8" s="1">
-        <v>3717.2763</v>
+        <v>3469.3323</v>
       </c>
       <c r="J8" s="1">
-        <v>67256.6059</v>
+        <v>67009.1363</v>
       </c>
       <c r="K8" s="1">
-        <v>58052.6701</v>
+        <v>58304.1654</v>
       </c>
       <c r="L8" s="1">
-        <v>14.7972</v>
+        <v>14.8315</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7519.5107</v>
+        <v>-7549.134</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0432</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>16.4264</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E9" s="1">
-        <v>4387.5099</v>
+        <v>4396.2776</v>
       </c>
       <c r="F9" s="1">
-        <v>568.7853</v>
+        <v>569.9340999999999</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72070.9924</v>
+        <v>72070.817</v>
       </c>
       <c r="I9" s="1">
-        <v>6197.7655</v>
+        <v>5920.1984</v>
       </c>
       <c r="J9" s="1">
-        <v>78268.758</v>
+        <v>77991.0154</v>
       </c>
       <c r="K9" s="1">
-        <v>65572.1808</v>
+        <v>65853.2994</v>
       </c>
       <c r="L9" s="1">
-        <v>14.9452</v>
+        <v>14.9793</v>
       </c>
       <c r="M9" s="1">
         <v>0.75</v>
       </c>
       <c r="N9" s="1">
-        <v>2648.175</v>
+        <v>2653.4867</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6694.9205</v>
+        <v>-6727.2288</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0131</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>17.107</v>
       </c>
       <c r="C10" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D10" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E10" s="1">
-        <v>4956.2952</v>
+        <v>4966.2117</v>
       </c>
       <c r="F10" s="1">
-        <v>411.166</v>
+        <v>412.0015</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84787.34239999999</v>
+        <v>84787.1388</v>
       </c>
       <c r="I10" s="1">
-        <v>9502.8451</v>
+        <v>9192.9696</v>
       </c>
       <c r="J10" s="1">
-        <v>94290.1875</v>
+        <v>93980.1084</v>
       </c>
       <c r="K10" s="1">
-        <v>74915.2763</v>
+        <v>75234.01489999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.1152</v>
+        <v>15.1492</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7033.8159</v>
+        <v>-7062.2416</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0682</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>16.8894</v>
       </c>
       <c r="C11" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D11" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E11" s="1">
-        <v>5367.4612</v>
+        <v>5378.2132</v>
       </c>
       <c r="F11" s="1">
-        <v>688.4597</v>
+        <v>689.8155</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>90652.662</v>
+        <v>90653.0104</v>
       </c>
       <c r="I11" s="1">
-        <v>12469.0292</v>
+        <v>12130.728</v>
       </c>
       <c r="J11" s="1">
-        <v>103121.6912</v>
+        <v>102783.7384</v>
       </c>
       <c r="K11" s="1">
-        <v>81949.0922</v>
+        <v>82296.2565</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2678</v>
+        <v>15.3018</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4460.6657</v>
+        <v>4469.5905</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7167.0052</v>
+        <v>-7204.2947</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0112</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>16.4004</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E12" s="1">
-        <v>6055.9209</v>
+        <v>6068.0287</v>
       </c>
       <c r="F12" s="1">
-        <v>821.452</v>
+        <v>823.1261</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99319.52439999999</v>
+        <v>99319.0661</v>
       </c>
       <c r="I12" s="1">
-        <v>15302.0239</v>
+        <v>14926.4333</v>
       </c>
       <c r="J12" s="1">
-        <v>114621.5483</v>
+        <v>114245.4994</v>
       </c>
       <c r="K12" s="1">
-        <v>93576.7631</v>
+        <v>93970.14169999999</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4521</v>
+        <v>15.4861</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13472.141</v>
+        <v>-13526.6787</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>15.3877</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E13" s="1">
-        <v>6877.3728</v>
+        <v>6891.1548</v>
       </c>
       <c r="F13" s="1">
-        <v>1139.1354</v>
+        <v>1141.4314</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105826.9499</v>
+        <v>105826.7752</v>
       </c>
       <c r="I13" s="1">
-        <v>11829.8829</v>
+        <v>11399.7546</v>
       </c>
       <c r="J13" s="1">
-        <v>117656.8328</v>
+        <v>117226.5298</v>
       </c>
       <c r="K13" s="1">
-        <v>107048.9042</v>
+        <v>107496.8204</v>
       </c>
       <c r="L13" s="1">
-        <v>15.5654</v>
+        <v>15.5992</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-17528.6738</v>
+        <v>-17599.1607</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0559</v>
+        <v>-0.0565</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.6367</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E14" s="1">
-        <v>8016.5082</v>
+        <v>8032.5862</v>
       </c>
       <c r="F14" s="1">
-        <v>-8016.5082</v>
+        <v>-8032.5862</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117335.226</v>
+        <v>117335.2003</v>
       </c>
       <c r="I14" s="1">
-        <v>4301.2091</v>
+        <v>3800.5939</v>
       </c>
       <c r="J14" s="1">
-        <v>121636.4352</v>
+        <v>121135.7943</v>
       </c>
       <c r="K14" s="1">
-        <v>124577.5779</v>
+        <v>125095.9811</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5401</v>
+        <v>15.5736</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117335.226</v>
+        <v>117335.2003</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0472</v>
+        <v>-0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.1934</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.1176</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="F3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0053</v>
+        <v>-0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>15.3311</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.8885</v>
+        <v>1410.0645</v>
       </c>
       <c r="F4" s="1">
-        <v>563.5515</v>
+        <v>570.3413</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1554</v>
+        <v>14.1837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8639.8649</v>
+        <v>-8761.4683</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>15.3637</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E5" s="1">
-        <v>1976.44</v>
+        <v>1980.4057</v>
       </c>
       <c r="F5" s="1">
-        <v>666.4136</v>
+        <v>667.7394</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30365.4319</v>
+        <v>30365.5612</v>
       </c>
       <c r="I5" s="1">
-        <v>1360.1351</v>
+        <v>1238.5317</v>
       </c>
       <c r="J5" s="1">
-        <v>31725.5671</v>
+        <v>31604.093</v>
       </c>
       <c r="K5" s="1">
-        <v>28639.8649</v>
+        <v>28761.4683</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4906</v>
+        <v>14.523</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10238.5781</v>
+        <v>-10279.5147</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.002</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>14.6447</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E6" s="1">
-        <v>2642.8536</v>
+        <v>2648.1452</v>
       </c>
       <c r="F6" s="1">
-        <v>759.4254</v>
+        <v>746.8323</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38703.7983</v>
+        <v>38703.701</v>
       </c>
       <c r="I6" s="1">
-        <v>1121.5571</v>
+        <v>959.0170000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>39825.3553</v>
+        <v>39662.718</v>
       </c>
       <c r="K6" s="1">
-        <v>38878.4429</v>
+        <v>39040.983</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7108</v>
+        <v>14.7428</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1778.796</v>
+        <v>1782.3652</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9342.761</v>
+        <v>-9176.6518</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0455</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>15.486</v>
       </c>
       <c r="C7" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D7" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E7" s="1">
-        <v>3402.279</v>
+        <v>3394.9775</v>
       </c>
       <c r="F7" s="1">
-        <v>570.3511999999999</v>
+        <v>585.6211</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52687.6926</v>
+        <v>52469.3767</v>
       </c>
       <c r="I7" s="1">
-        <v>1778.796</v>
+        <v>1782.3652</v>
       </c>
       <c r="J7" s="1">
-        <v>54466.4887</v>
+        <v>54251.7419</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.696</v>
+        <v>14.7276</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8832.458000000001</v>
+        <v>-9087.082399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0931</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>16.1958</v>
       </c>
       <c r="C8" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E8" s="1">
-        <v>3972.6302</v>
+        <v>3980.5986</v>
       </c>
       <c r="F8" s="1">
-        <v>481.3516</v>
+        <v>482.2838</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64339.5262</v>
+        <v>64340.0066</v>
       </c>
       <c r="I8" s="1">
-        <v>2946.3381</v>
+        <v>2695.2828</v>
       </c>
       <c r="J8" s="1">
-        <v>67285.8643</v>
+        <v>67035.28939999999</v>
       </c>
       <c r="K8" s="1">
-        <v>58832.458</v>
+        <v>59087.0824</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8094</v>
+        <v>14.8438</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7795.874</v>
+        <v>-7826.5975</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0437</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>16.4264</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E9" s="1">
-        <v>4453.9817</v>
+        <v>4462.8823</v>
       </c>
       <c r="F9" s="1">
-        <v>590.1366</v>
+        <v>591.3282</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73162.8857</v>
+        <v>73162.70759999999</v>
       </c>
       <c r="I9" s="1">
-        <v>5150.4641</v>
+        <v>4868.6853</v>
       </c>
       <c r="J9" s="1">
-        <v>78313.3498</v>
+        <v>78031.39290000001</v>
       </c>
       <c r="K9" s="1">
-        <v>66628.33199999999</v>
+        <v>66913.6799</v>
       </c>
       <c r="L9" s="1">
-        <v>14.9593</v>
+        <v>14.9934</v>
       </c>
       <c r="M9" s="1">
         <v>0.75</v>
       </c>
       <c r="N9" s="1">
-        <v>2681.5254</v>
+        <v>2686.904</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7012.2946</v>
+        <v>-7045.9443</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0133</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>17.107</v>
       </c>
       <c r="C10" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D10" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E10" s="1">
-        <v>5044.1183</v>
+        <v>5054.2105</v>
       </c>
       <c r="F10" s="1">
-        <v>432.3108</v>
+        <v>433.1889</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>86289.7326</v>
+        <v>86289.5254</v>
       </c>
       <c r="I10" s="1">
-        <v>8138.1695</v>
+        <v>7822.741</v>
       </c>
       <c r="J10" s="1">
-        <v>94427.90210000001</v>
+        <v>94112.26639999999</v>
       </c>
       <c r="K10" s="1">
-        <v>76322.1519</v>
+        <v>76646.5282</v>
       </c>
       <c r="L10" s="1">
-        <v>15.1309</v>
+        <v>15.1649</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7395.5401</v>
+        <v>-7425.4207</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0692</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>16.8894</v>
       </c>
       <c r="C11" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D11" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E11" s="1">
-        <v>5476.4291</v>
+        <v>5487.3994</v>
       </c>
       <c r="F11" s="1">
-        <v>718.1512</v>
+        <v>719.566</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92493.05409999999</v>
+        <v>92493.40949999999</v>
       </c>
       <c r="I11" s="1">
-        <v>10742.6294</v>
+        <v>10397.3203</v>
       </c>
       <c r="J11" s="1">
-        <v>103235.6834</v>
+        <v>102890.7299</v>
       </c>
       <c r="K11" s="1">
-        <v>83717.692</v>
+        <v>84071.9489</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2869</v>
+        <v>15.3209</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4539.7065</v>
+        <v>4548.7895</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7589.4366</v>
+        <v>-7628.5691</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0114</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>16.4004</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E12" s="1">
-        <v>6194.5803</v>
+        <v>6206.9654</v>
       </c>
       <c r="F12" s="1">
-        <v>858.1956</v>
+        <v>859.9441</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101593.5951</v>
+        <v>101593.1263</v>
       </c>
       <c r="I12" s="1">
-        <v>13153.1927</v>
+        <v>12768.7513</v>
       </c>
       <c r="J12" s="1">
-        <v>114746.7878</v>
+        <v>114361.8776</v>
       </c>
       <c r="K12" s="1">
-        <v>95846.8352</v>
+        <v>96249.30740000001</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4727</v>
+        <v>15.5067</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-14074.7516</v>
+        <v>-14131.7187</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>15.3877</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E13" s="1">
-        <v>7052.7759</v>
+        <v>7066.9094</v>
       </c>
       <c r="F13" s="1">
-        <v>1189.1985</v>
+        <v>1191.5952</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108526.0005</v>
+        <v>108525.8213</v>
       </c>
       <c r="I13" s="1">
-        <v>9078.441199999999</v>
+        <v>8637.0326</v>
       </c>
       <c r="J13" s="1">
-        <v>117604.4416</v>
+        <v>117162.8539</v>
       </c>
       <c r="K13" s="1">
-        <v>109921.5868</v>
+        <v>110381.0261</v>
       </c>
       <c r="L13" s="1">
-        <v>15.5856</v>
+        <v>15.6194</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-18299.0297</v>
+        <v>-18372.6111</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0573</v>
+        <v>-0.0579</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.6367</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E14" s="1">
-        <v>8241.974399999999</v>
+        <v>8258.5047</v>
       </c>
       <c r="F14" s="1">
-        <v>-8241.974399999999</v>
+        <v>-8258.5047</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120635.3073</v>
+        <v>120635.2809</v>
       </c>
       <c r="I14" s="1">
-        <v>779.4115</v>
+        <v>264.4215</v>
       </c>
       <c r="J14" s="1">
-        <v>121414.7188</v>
+        <v>120899.7024</v>
       </c>
       <c r="K14" s="1">
-        <v>128220.6164</v>
+        <v>128753.6372</v>
       </c>
       <c r="L14" s="1">
-        <v>15.557</v>
+        <v>15.5904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120635.3073</v>
+        <v>120635.2809</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0485</v>
+        <v>-0.0493</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.1934</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.1176</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="F3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9946.5949</v>
+        <v>9906.9035</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0053</v>
+        <v>-0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>15.3311</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.8885</v>
+        <v>1410.0645</v>
       </c>
       <c r="F4" s="1">
-        <v>573.4171</v>
+        <v>580.2266</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21661.1351</v>
+        <v>21574.5507</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1554</v>
+        <v>14.1837</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8791.1149</v>
+        <v>-8913.325199999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>15.3637</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E5" s="1">
-        <v>1986.3056</v>
+        <v>1990.2911</v>
       </c>
       <c r="F5" s="1">
-        <v>676.4015000000001</v>
+        <v>677.7474</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30517.0036</v>
+        <v>30517.1335</v>
       </c>
       <c r="I5" s="1">
-        <v>1208.8851</v>
+        <v>1086.6748</v>
       </c>
       <c r="J5" s="1">
-        <v>31725.8887</v>
+        <v>31603.8083</v>
       </c>
       <c r="K5" s="1">
-        <v>28791.1149</v>
+        <v>28913.3252</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4948</v>
+        <v>14.5272</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10392.0302</v>
+        <v>-10433.5817</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.002</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>14.6447</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E6" s="1">
-        <v>2662.7071</v>
+        <v>2668.0385</v>
       </c>
       <c r="F6" s="1">
-        <v>738.6191</v>
+        <v>725.9843</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38994.5473</v>
+        <v>38994.4493</v>
       </c>
       <c r="I6" s="1">
-        <v>816.8549</v>
+        <v>653.093</v>
       </c>
       <c r="J6" s="1">
-        <v>39811.4022</v>
+        <v>39647.5424</v>
       </c>
       <c r="K6" s="1">
-        <v>39183.1451</v>
+        <v>39346.907</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7155</v>
+        <v>14.7475</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1787.6751</v>
+        <v>1791.262</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9029.179899999999</v>
+        <v>-8861.831</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0459</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>15.486</v>
       </c>
       <c r="C7" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D7" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E7" s="1">
-        <v>3401.3262</v>
+        <v>3394.0227</v>
       </c>
       <c r="F7" s="1">
-        <v>621.3723</v>
+        <v>636.7446</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52672.938</v>
+        <v>52454.6212</v>
       </c>
       <c r="I7" s="1">
-        <v>1787.6751</v>
+        <v>1791.262</v>
       </c>
       <c r="J7" s="1">
-        <v>54460.613</v>
+        <v>54245.8832</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.7001</v>
+        <v>14.7318</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9622.5713</v>
+        <v>-9880.3663</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09329999999999999</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>16.1958</v>
       </c>
       <c r="C8" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E8" s="1">
-        <v>4022.6985</v>
+        <v>4030.7673</v>
       </c>
       <c r="F8" s="1">
-        <v>498.8684</v>
+        <v>499.8352</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>65150.4184</v>
+        <v>65150.9049</v>
       </c>
       <c r="I8" s="1">
-        <v>2165.1037</v>
+        <v>1910.8957</v>
       </c>
       <c r="J8" s="1">
-        <v>67315.52220000001</v>
+        <v>67061.8006</v>
       </c>
       <c r="K8" s="1">
-        <v>59622.5713</v>
+        <v>59880.3663</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8215</v>
+        <v>14.8558</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8079.5734</v>
+        <v>-8111.4264</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0443</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>16.4264</v>
       </c>
       <c r="C9" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D9" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E9" s="1">
-        <v>4521.567</v>
+        <v>4530.6026</v>
       </c>
       <c r="F9" s="1">
-        <v>612.1441</v>
+        <v>613.3799</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74273.0674</v>
+        <v>74272.8867</v>
       </c>
       <c r="I9" s="1">
-        <v>4085.5304</v>
+        <v>3799.4693</v>
       </c>
       <c r="J9" s="1">
-        <v>78358.5978</v>
+        <v>78072.356</v>
       </c>
       <c r="K9" s="1">
-        <v>67702.1447</v>
+        <v>67991.7926</v>
       </c>
       <c r="L9" s="1">
-        <v>14.9732</v>
+        <v>15.0072</v>
       </c>
       <c r="M9" s="1">
         <v>0.75</v>
       </c>
       <c r="N9" s="1">
-        <v>2715.3215</v>
+        <v>2720.768</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7340.0021</v>
+        <v>-7375.0355</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0135</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>17.107</v>
       </c>
       <c r="C10" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D10" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E10" s="1">
-        <v>5133.711</v>
+        <v>5143.9825</v>
       </c>
       <c r="F10" s="1">
-        <v>454.2539</v>
+        <v>455.1762</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87822.39479999999</v>
+        <v>87822.18399999999</v>
       </c>
       <c r="I10" s="1">
-        <v>6745.5282</v>
+        <v>6424.4338</v>
       </c>
       <c r="J10" s="1">
-        <v>94567.923</v>
+        <v>94246.61780000001</v>
       </c>
       <c r="K10" s="1">
-        <v>77757.46829999999</v>
+        <v>78087.5961</v>
       </c>
       <c r="L10" s="1">
-        <v>15.1464</v>
+        <v>15.1804</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7770.9221</v>
+        <v>-7802.3125</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0703</v>
+        <v>0.0701</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>16.8894</v>
       </c>
       <c r="C11" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D11" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E11" s="1">
-        <v>5587.965</v>
+        <v>5599.1587</v>
       </c>
       <c r="F11" s="1">
-        <v>749.0186</v>
+        <v>750.4946</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94376.817</v>
+        <v>94377.17969999999</v>
       </c>
       <c r="I11" s="1">
-        <v>8974.606100000001</v>
+        <v>8622.121300000001</v>
       </c>
       <c r="J11" s="1">
-        <v>103351.4231</v>
+        <v>102999.3009</v>
       </c>
       <c r="K11" s="1">
-        <v>85528.39049999999</v>
+        <v>85889.9087</v>
       </c>
       <c r="L11" s="1">
-        <v>15.3058</v>
+        <v>15.3398</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4620.3399</v>
+        <v>4629.5842</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8030.1347</v>
+        <v>-8071.1862</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0116</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>16.4004</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E12" s="1">
-        <v>6336.9836</v>
+        <v>6349.6533</v>
       </c>
       <c r="F12" s="1">
-        <v>896.5366</v>
+        <v>898.3626</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103929.0654</v>
+        <v>103928.5859</v>
       </c>
       <c r="I12" s="1">
-        <v>10944.4714</v>
+        <v>10550.9351</v>
       </c>
       <c r="J12" s="1">
-        <v>114873.5368</v>
+        <v>114479.5209</v>
       </c>
       <c r="K12" s="1">
-        <v>98178.8651</v>
+        <v>98590.67909999999</v>
       </c>
       <c r="L12" s="1">
-        <v>15.493</v>
+        <v>15.5269</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-14703.5595</v>
+        <v>-14763.0615</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0134</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>15.3877</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E13" s="1">
-        <v>7233.5202</v>
+        <v>7248.0159</v>
       </c>
       <c r="F13" s="1">
-        <v>1055.4477</v>
+        <v>1023.9565</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111307.239</v>
+        <v>111307.0553</v>
       </c>
       <c r="I13" s="1">
-        <v>6240.9119</v>
+        <v>5787.8736</v>
       </c>
       <c r="J13" s="1">
-        <v>117548.1509</v>
+        <v>117094.9288</v>
       </c>
       <c r="K13" s="1">
-        <v>112882.4246</v>
+        <v>113353.7406</v>
       </c>
       <c r="L13" s="1">
-        <v>15.6055</v>
+        <v>15.6393</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-16240.9119</v>
+        <v>-15787.8736</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0587</v>
+        <v>-0.0593</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.6367</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E14" s="1">
-        <v>8288.9679</v>
+        <v>8271.972400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8288.9679</v>
+        <v>-8271.972400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121323.136</v>
+        <v>120832.0098</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121323.136</v>
+        <v>120832.0098</v>
       </c>
       <c r="K14" s="1">
-        <v>129123.3365</v>
+        <v>129141.6142</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5777</v>
+        <v>15.6119</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121323.136</v>
+        <v>120832.0098</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
   </sheetData>
@@ -4450,9 +4450,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.6077</v>
+        <v>15.6389</v>
       </c>
       <c r="D3" s="1">
-        <v>15.5229</v>
+        <v>15.5563</v>
       </c>
       <c r="E3" s="1">
-        <v>15.5401</v>
+        <v>15.5736</v>
       </c>
       <c r="F3" s="1">
-        <v>15.557</v>
+        <v>15.5904</v>
       </c>
       <c r="G3" s="1">
-        <v>15.5777</v>
+        <v>15.6119</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0427</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1538</v>
+        <v>0.1415</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1551</v>
+        <v>0.1433</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1539</v>
+        <v>0.142</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1527</v>
+        <v>0.1406</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1525</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,16 +4536,16 @@
         <v>0.1548</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1741</v>
+        <v>0.1738</v>
       </c>
       <c r="D5" s="3">
         <v>0.1671</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1687</v>
+        <v>0.1688</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1704</v>
+        <v>0.1705</v>
       </c>
       <c r="G5" s="3">
         <v>0.1718</v>
@@ -4559,19 +4559,19 @@
         <v>0.1443</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7664</v>
+        <v>0.6972</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8065</v>
+        <v>0.7363</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7917</v>
+        <v>0.7211</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7766</v>
+        <v>0.7055</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7693</v>
+        <v>0.6999</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0213</v>
+        <v>0.0133</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0319</v>
+        <v>0.0234</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0277</v>
+        <v>0.0191</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0235</v>
+        <v>0.0149</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0216</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9388.835999999999</v>
+        <v>9369.960499999999</v>
       </c>
       <c r="D8" s="1">
-        <v>8759.5795</v>
+        <v>8777.128699999999</v>
       </c>
       <c r="E8" s="1">
-        <v>8878.7871</v>
+        <v>8896.575000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>9000.027899999999</v>
+        <v>9018.0587</v>
       </c>
       <c r="G8" s="1">
-        <v>9123.336499999999</v>
+        <v>9141.6142</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P41_KFSDIV.xlsx
+++ b/output/1Y_P41_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.1934</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1176</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15.3311</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3637</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6447</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.486</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.1958</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.4264</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>17.107</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.8894</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.4004</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3877</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6367</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.1934</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1176</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15.3311</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3637</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6447</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.486</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.1958</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.4264</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>17.107</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.8894</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.4004</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3877</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6367</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.1934</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1176</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15.3311</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3637</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6447</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.486</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.1958</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.4264</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>17.107</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.8894</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.4004</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3877</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6367</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.1934</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1176</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15.3311</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3637</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6447</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.486</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.1958</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.4264</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>17.107</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.8894</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.4004</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3877</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6367</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.1934</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1176</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15.3311</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3637</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6447</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.486</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.1958</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.4264</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>17.107</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.8894</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.4004</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3877</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6367</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10815.0499</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9336</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0115</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9814000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.952</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
